--- a/Excel/029_Validação+de+Dados+exemplo+8.xlsx
+++ b/Excel/029_Validação+de+Dados+exemplo+8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Validação de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6863F8F1-5959-4D94-86A1-31B81FEB1CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6391F7-4CB4-4E71-BA66-1E4F785323E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>casa</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>fusca</t>
+  </si>
+  <si>
+    <t>junto</t>
+  </si>
+  <si>
+    <t>laranja</t>
   </si>
 </sst>
 </file>
@@ -473,13 +479,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A096B3F-3F20-4D87-A3FB-7004DAEFE5F0}">
   <dimension ref="C2:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="3:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
@@ -503,7 +509,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -519,7 +525,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
@@ -533,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="H5" s="1"/>
       <c r="L5" s="1"/>
@@ -541,7 +547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -555,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,7 +575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>13</v>
@@ -579,31 +585,31 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="H9" s="1"/>
       <c r="L9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C10" s="1"/>
       <c r="H10" s="1"/>
       <c r="L10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C11" s="1"/>
       <c r="H11" s="1"/>
       <c r="L11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
       <c r="H12" s="1"/>
       <c r="L12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C13" s="1"/>
       <c r="H13" s="1"/>
       <c r="L13" s="1"/>
@@ -640,11 +646,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A336C0-003C-4732-B650-95E6988755F8}">
   <dimension ref="C2:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="3:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
@@ -668,7 +676,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -684,7 +692,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
@@ -698,55 +706,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="H5" s="1"/>
       <c r="L5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C10" s="1"/>
       <c r="H10" s="1"/>
       <c r="L10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C11" s="1"/>
       <c r="H11" s="1"/>
       <c r="L11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
       <c r="H12" s="1"/>
       <c r="L12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C13" s="1"/>
       <c r="H13" s="1"/>
       <c r="L13" s="1"/>
@@ -760,6 +788,20 @@
     <mergeCell ref="P2:R3"/>
     <mergeCell ref="S2:S3"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Sua palavra deve ter mais de 5 letras" sqref="C5:C13" xr:uid="{B504F142-021D-46E9-9DEE-8F8C1918C114}">
+      <formula1>5</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção " error="Sua palavra deve ter menos de 5 letras" sqref="H5:H13" xr:uid="{D7795BF5-AAC4-463B-AC3E-318DADB3A4EB}">
+      <formula1>5</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Sua palavra deve ser igual ou mais de 5 letras" sqref="L5:L13" xr:uid="{35A9B3DE-6B99-4606-9405-6B4104E838A1}">
+      <formula1>5</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Sua palavra deve ter de 5 ou menos letras" sqref="P5:P13" xr:uid="{FC5BD23D-95F9-4A04-A69B-129104337E96}">
+      <formula1>5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
